--- a/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VH-verhardingen.xlsx
+++ b/tabellen/concept/5.1/objectentabellen-verkort/objecten-concept-5.1-VH-verhardingen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen-verkort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{75606224-B704-4A6F-BF86-47FDD4DB0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{69B3F036-9087-4726-BFAC-C262B0CCC068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{AAD0CC46-93A2-4F85-BE65-EE73344B15F5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A8861F29-00BB-4AFF-947E-C408E0DACD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-VH-verhard" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3236" uniqueCount="355">
   <si>
     <t>hoofdgroep</t>
   </si>
@@ -982,9 +982,48 @@
     <t>255,255,153</t>
   </si>
   <si>
+    <t>MOLGOOT</t>
+  </si>
+  <si>
+    <t>VH-MOLGOOT-SO</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT</t>
+  </si>
+  <si>
+    <t>VH-SCHIJNGOOT-SO</t>
+  </si>
+  <si>
+    <t>MOLGOOT_BSS</t>
+  </si>
+  <si>
+    <t>MOLGOOT_STRAATBAKSTEEN</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_BSS</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_STRAATBAKSTEEN</t>
+  </si>
+  <si>
     <t>OPENVERHARDING_BETONSTRAATSTEEN-OP DE KOP</t>
   </si>
   <si>
+    <t>MOLGOOT_BSS_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>MOLGOOT_BSS_VOORKANT</t>
+  </si>
+  <si>
+    <t>MOLGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_BSS_ACHTERKANT</t>
+  </si>
+  <si>
+    <t>SCHIJNGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
+  </si>
+  <si>
     <t>KANTOPSLUITING_OPSLUITBAND_300X150_HULPSTUK</t>
   </si>
   <si>
@@ -1042,43 +1081,10 @@
     <t>ONVERHARD</t>
   </si>
   <si>
-    <t>MOLGOOT</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS</t>
-  </si>
-  <si>
-    <t>MOLGOOT_STRAATBAKSTEEN</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_BSS</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_STRAATBAKSTEEN</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS_ACHTERKANT</t>
-  </si>
-  <si>
-    <t>MOLGOOT_BSS_VOORKANT</t>
-  </si>
-  <si>
     <t>MOLGOOT_STRAATBAKSTEEN_VOORKANT</t>
   </si>
   <si>
-    <t>MOLGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_BSS_ACHTERKANT</t>
-  </si>
-  <si>
     <t>SCHIJNGOOT_BSS_VOORKANT</t>
-  </si>
-  <si>
-    <t>SCHIJNGOOT_STRAATBAKSTEEN_ACHTERKANT</t>
   </si>
   <si>
     <t>SCHIJNGOOT_STRAATBAKSTEEN_VOORKANT</t>
@@ -1941,11 +1947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC71C0CB-E149-4777-A639-C42D715DD1D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69A156B-D6E2-4EDF-BB88-700529F0CAE5}">
   <dimension ref="A1:AJ268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="L17" sqref="K17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12286,7 +12292,7 @@
         <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="E101" t="s">
         <v>38</v>
@@ -12485,7 +12491,7 @@
         <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="E103" t="s">
         <v>38</v>
@@ -12684,7 +12690,7 @@
         <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E105" t="s">
         <v>38</v>
@@ -12883,7 +12889,7 @@
         <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="E107" t="s">
         <v>38</v>
@@ -13082,7 +13088,7 @@
         <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="E109" t="s">
         <v>38</v>
@@ -13281,7 +13287,7 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="E111" t="s">
         <v>38</v>
@@ -13480,7 +13486,7 @@
         <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="E113" t="s">
         <v>38</v>
@@ -16347,7 +16353,7 @@
         <v>36</v>
       </c>
       <c r="C141" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="E141" t="s">
         <v>38</v>
@@ -16546,7 +16552,7 @@
         <v>36</v>
       </c>
       <c r="C143" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="E143" t="s">
         <v>38</v>
@@ -16745,7 +16751,7 @@
         <v>36</v>
       </c>
       <c r="C145" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="E145" t="s">
         <v>38</v>
@@ -16944,7 +16950,7 @@
         <v>36</v>
       </c>
       <c r="C147" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="E147" t="s">
         <v>38</v>
@@ -17143,7 +17149,7 @@
         <v>36</v>
       </c>
       <c r="C149" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="E149" t="s">
         <v>38</v>
@@ -17342,7 +17348,7 @@
         <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="E151" t="s">
         <v>38</v>
@@ -17541,7 +17547,7 @@
         <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="E153" t="s">
         <v>38</v>
@@ -17740,7 +17746,7 @@
         <v>36</v>
       </c>
       <c r="C155" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="E155" t="s">
         <v>38</v>
@@ -17939,7 +17945,7 @@
         <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="E157" t="s">
         <v>38</v>
@@ -19267,7 +19273,7 @@
         <v>36</v>
       </c>
       <c r="C170" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="E170" t="s">
         <v>38</v>
@@ -23709,13 +23715,97 @@
         <v>36</v>
       </c>
       <c r="C213" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E213" t="s">
         <v>38</v>
       </c>
       <c r="F213" t="s">
         <v>39</v>
+      </c>
+      <c r="G213" t="s">
+        <v>40</v>
+      </c>
+      <c r="H213">
+        <v>40</v>
+      </c>
+      <c r="I213">
+        <v>42</v>
+      </c>
+      <c r="J213">
+        <v>40</v>
+      </c>
+      <c r="K213">
+        <v>40</v>
+      </c>
+      <c r="L213">
+        <v>253</v>
+      </c>
+      <c r="M213" t="s">
+        <v>320</v>
+      </c>
+      <c r="N213" t="s">
+        <v>42</v>
+      </c>
+      <c r="O213">
+        <v>40</v>
+      </c>
+      <c r="P213">
+        <v>42</v>
+      </c>
+      <c r="Q213">
+        <v>40</v>
+      </c>
+      <c r="R213">
+        <v>40</v>
+      </c>
+      <c r="S213">
+        <v>253</v>
+      </c>
+      <c r="T213" t="s">
+        <v>320</v>
+      </c>
+      <c r="U213" t="s">
+        <v>43</v>
+      </c>
+      <c r="V213">
+        <v>40</v>
+      </c>
+      <c r="W213">
+        <v>42</v>
+      </c>
+      <c r="X213">
+        <v>40</v>
+      </c>
+      <c r="Y213">
+        <v>40</v>
+      </c>
+      <c r="Z213">
+        <v>253</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC213">
+        <v>40</v>
+      </c>
+      <c r="AD213">
+        <v>42</v>
+      </c>
+      <c r="AE213">
+        <v>40</v>
+      </c>
+      <c r="AF213">
+        <v>40</v>
+      </c>
+      <c r="AG213">
+        <v>253</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="214" spans="1:34" x14ac:dyDescent="0.35">
@@ -23723,13 +23813,97 @@
         <v>36</v>
       </c>
       <c r="C214" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="E214" t="s">
         <v>38</v>
       </c>
       <c r="F214" t="s">
         <v>39</v>
+      </c>
+      <c r="G214" t="s">
+        <v>40</v>
+      </c>
+      <c r="H214">
+        <v>40</v>
+      </c>
+      <c r="I214">
+        <v>42</v>
+      </c>
+      <c r="J214">
+        <v>40</v>
+      </c>
+      <c r="K214">
+        <v>40</v>
+      </c>
+      <c r="L214">
+        <v>253</v>
+      </c>
+      <c r="M214" t="s">
+        <v>320</v>
+      </c>
+      <c r="N214" t="s">
+        <v>42</v>
+      </c>
+      <c r="O214">
+        <v>40</v>
+      </c>
+      <c r="P214">
+        <v>42</v>
+      </c>
+      <c r="Q214">
+        <v>40</v>
+      </c>
+      <c r="R214">
+        <v>40</v>
+      </c>
+      <c r="S214">
+        <v>253</v>
+      </c>
+      <c r="T214" t="s">
+        <v>320</v>
+      </c>
+      <c r="U214" t="s">
+        <v>43</v>
+      </c>
+      <c r="V214">
+        <v>40</v>
+      </c>
+      <c r="W214">
+        <v>42</v>
+      </c>
+      <c r="X214">
+        <v>40</v>
+      </c>
+      <c r="Y214">
+        <v>40</v>
+      </c>
+      <c r="Z214">
+        <v>253</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC214">
+        <v>40</v>
+      </c>
+      <c r="AD214">
+        <v>42</v>
+      </c>
+      <c r="AE214">
+        <v>40</v>
+      </c>
+      <c r="AF214">
+        <v>40</v>
+      </c>
+      <c r="AG214">
+        <v>253</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="215" spans="1:34" x14ac:dyDescent="0.35">
@@ -23737,13 +23911,97 @@
         <v>36</v>
       </c>
       <c r="C215" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E215" t="s">
         <v>38</v>
       </c>
       <c r="F215" t="s">
         <v>39</v>
+      </c>
+      <c r="G215" t="s">
+        <v>40</v>
+      </c>
+      <c r="H215">
+        <v>40</v>
+      </c>
+      <c r="I215">
+        <v>42</v>
+      </c>
+      <c r="J215">
+        <v>40</v>
+      </c>
+      <c r="K215">
+        <v>40</v>
+      </c>
+      <c r="L215">
+        <v>253</v>
+      </c>
+      <c r="M215" t="s">
+        <v>320</v>
+      </c>
+      <c r="N215" t="s">
+        <v>42</v>
+      </c>
+      <c r="O215">
+        <v>40</v>
+      </c>
+      <c r="P215">
+        <v>42</v>
+      </c>
+      <c r="Q215">
+        <v>40</v>
+      </c>
+      <c r="R215">
+        <v>40</v>
+      </c>
+      <c r="S215">
+        <v>253</v>
+      </c>
+      <c r="T215" t="s">
+        <v>320</v>
+      </c>
+      <c r="U215" t="s">
+        <v>43</v>
+      </c>
+      <c r="V215">
+        <v>40</v>
+      </c>
+      <c r="W215">
+        <v>42</v>
+      </c>
+      <c r="X215">
+        <v>40</v>
+      </c>
+      <c r="Y215">
+        <v>40</v>
+      </c>
+      <c r="Z215">
+        <v>253</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC215">
+        <v>40</v>
+      </c>
+      <c r="AD215">
+        <v>42</v>
+      </c>
+      <c r="AE215">
+        <v>40</v>
+      </c>
+      <c r="AF215">
+        <v>40</v>
+      </c>
+      <c r="AG215">
+        <v>253</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="216" spans="1:34" x14ac:dyDescent="0.35">
@@ -23751,13 +24009,97 @@
         <v>36</v>
       </c>
       <c r="C216" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="E216" t="s">
         <v>38</v>
       </c>
       <c r="F216" t="s">
         <v>39</v>
+      </c>
+      <c r="G216" t="s">
+        <v>40</v>
+      </c>
+      <c r="H216">
+        <v>40</v>
+      </c>
+      <c r="I216">
+        <v>42</v>
+      </c>
+      <c r="J216">
+        <v>40</v>
+      </c>
+      <c r="K216">
+        <v>40</v>
+      </c>
+      <c r="L216">
+        <v>253</v>
+      </c>
+      <c r="M216" t="s">
+        <v>320</v>
+      </c>
+      <c r="N216" t="s">
+        <v>42</v>
+      </c>
+      <c r="O216">
+        <v>40</v>
+      </c>
+      <c r="P216">
+        <v>42</v>
+      </c>
+      <c r="Q216">
+        <v>40</v>
+      </c>
+      <c r="R216">
+        <v>40</v>
+      </c>
+      <c r="S216">
+        <v>253</v>
+      </c>
+      <c r="T216" t="s">
+        <v>320</v>
+      </c>
+      <c r="U216" t="s">
+        <v>43</v>
+      </c>
+      <c r="V216">
+        <v>40</v>
+      </c>
+      <c r="W216">
+        <v>42</v>
+      </c>
+      <c r="X216">
+        <v>40</v>
+      </c>
+      <c r="Y216">
+        <v>40</v>
+      </c>
+      <c r="Z216">
+        <v>253</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC216">
+        <v>40</v>
+      </c>
+      <c r="AD216">
+        <v>42</v>
+      </c>
+      <c r="AE216">
+        <v>40</v>
+      </c>
+      <c r="AF216">
+        <v>40</v>
+      </c>
+      <c r="AG216">
+        <v>253</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="217" spans="1:34" x14ac:dyDescent="0.35">
@@ -23765,13 +24107,97 @@
         <v>36</v>
       </c>
       <c r="C217" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="E217" t="s">
         <v>38</v>
       </c>
       <c r="F217" t="s">
         <v>39</v>
+      </c>
+      <c r="G217" t="s">
+        <v>40</v>
+      </c>
+      <c r="H217">
+        <v>40</v>
+      </c>
+      <c r="I217">
+        <v>42</v>
+      </c>
+      <c r="J217">
+        <v>40</v>
+      </c>
+      <c r="K217">
+        <v>40</v>
+      </c>
+      <c r="L217">
+        <v>253</v>
+      </c>
+      <c r="M217" t="s">
+        <v>320</v>
+      </c>
+      <c r="N217" t="s">
+        <v>42</v>
+      </c>
+      <c r="O217">
+        <v>40</v>
+      </c>
+      <c r="P217">
+        <v>42</v>
+      </c>
+      <c r="Q217">
+        <v>40</v>
+      </c>
+      <c r="R217">
+        <v>40</v>
+      </c>
+      <c r="S217">
+        <v>253</v>
+      </c>
+      <c r="T217" t="s">
+        <v>320</v>
+      </c>
+      <c r="U217" t="s">
+        <v>43</v>
+      </c>
+      <c r="V217">
+        <v>40</v>
+      </c>
+      <c r="W217">
+        <v>42</v>
+      </c>
+      <c r="X217">
+        <v>40</v>
+      </c>
+      <c r="Y217">
+        <v>40</v>
+      </c>
+      <c r="Z217">
+        <v>253</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC217">
+        <v>40</v>
+      </c>
+      <c r="AD217">
+        <v>42</v>
+      </c>
+      <c r="AE217">
+        <v>40</v>
+      </c>
+      <c r="AF217">
+        <v>40</v>
+      </c>
+      <c r="AG217">
+        <v>253</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="218" spans="1:34" x14ac:dyDescent="0.35">
@@ -23779,13 +24205,97 @@
         <v>36</v>
       </c>
       <c r="C218" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E218" t="s">
         <v>38</v>
       </c>
       <c r="F218" t="s">
         <v>39</v>
+      </c>
+      <c r="G218" t="s">
+        <v>40</v>
+      </c>
+      <c r="H218">
+        <v>40</v>
+      </c>
+      <c r="I218">
+        <v>42</v>
+      </c>
+      <c r="J218">
+        <v>40</v>
+      </c>
+      <c r="K218">
+        <v>40</v>
+      </c>
+      <c r="L218">
+        <v>253</v>
+      </c>
+      <c r="M218" t="s">
+        <v>320</v>
+      </c>
+      <c r="N218" t="s">
+        <v>42</v>
+      </c>
+      <c r="O218">
+        <v>40</v>
+      </c>
+      <c r="P218">
+        <v>42</v>
+      </c>
+      <c r="Q218">
+        <v>40</v>
+      </c>
+      <c r="R218">
+        <v>40</v>
+      </c>
+      <c r="S218">
+        <v>253</v>
+      </c>
+      <c r="T218" t="s">
+        <v>320</v>
+      </c>
+      <c r="U218" t="s">
+        <v>43</v>
+      </c>
+      <c r="V218">
+        <v>40</v>
+      </c>
+      <c r="W218">
+        <v>42</v>
+      </c>
+      <c r="X218">
+        <v>40</v>
+      </c>
+      <c r="Y218">
+        <v>40</v>
+      </c>
+      <c r="Z218">
+        <v>253</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC218">
+        <v>40</v>
+      </c>
+      <c r="AD218">
+        <v>42</v>
+      </c>
+      <c r="AE218">
+        <v>40</v>
+      </c>
+      <c r="AF218">
+        <v>40</v>
+      </c>
+      <c r="AG218">
+        <v>253</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="219" spans="1:34" x14ac:dyDescent="0.35">
@@ -23793,7 +24303,7 @@
         <v>36</v>
       </c>
       <c r="C219" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E219" t="s">
         <v>38</v>
@@ -23810,7 +24320,7 @@
         <v>2936</v>
       </c>
       <c r="C220" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="E220" t="s">
         <v>38</v>
@@ -24327,7 +24837,7 @@
         <v>2519</v>
       </c>
       <c r="C225" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E225" t="s">
         <v>38</v>
@@ -25673,7 +26183,7 @@
         <v>36</v>
       </c>
       <c r="C238" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="D238">
         <v>2488</v>
@@ -27536,13 +28046,97 @@
         <v>36</v>
       </c>
       <c r="C256" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="E256" t="s">
         <v>38</v>
       </c>
       <c r="F256" t="s">
         <v>39</v>
+      </c>
+      <c r="G256" t="s">
+        <v>40</v>
+      </c>
+      <c r="H256">
+        <v>40</v>
+      </c>
+      <c r="I256">
+        <v>42</v>
+      </c>
+      <c r="J256">
+        <v>40</v>
+      </c>
+      <c r="K256">
+        <v>40</v>
+      </c>
+      <c r="L256">
+        <v>253</v>
+      </c>
+      <c r="M256" t="s">
+        <v>322</v>
+      </c>
+      <c r="N256" t="s">
+        <v>42</v>
+      </c>
+      <c r="O256">
+        <v>40</v>
+      </c>
+      <c r="P256">
+        <v>42</v>
+      </c>
+      <c r="Q256">
+        <v>40</v>
+      </c>
+      <c r="R256">
+        <v>40</v>
+      </c>
+      <c r="S256">
+        <v>253</v>
+      </c>
+      <c r="T256" t="s">
+        <v>322</v>
+      </c>
+      <c r="U256" t="s">
+        <v>43</v>
+      </c>
+      <c r="V256">
+        <v>40</v>
+      </c>
+      <c r="W256">
+        <v>42</v>
+      </c>
+      <c r="X256">
+        <v>40</v>
+      </c>
+      <c r="Y256">
+        <v>40</v>
+      </c>
+      <c r="Z256">
+        <v>253</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC256">
+        <v>40</v>
+      </c>
+      <c r="AD256">
+        <v>42</v>
+      </c>
+      <c r="AE256">
+        <v>40</v>
+      </c>
+      <c r="AF256">
+        <v>40</v>
+      </c>
+      <c r="AG256">
+        <v>253</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="257" spans="1:34" x14ac:dyDescent="0.35">
@@ -27550,13 +28144,97 @@
         <v>36</v>
       </c>
       <c r="C257" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="E257" t="s">
         <v>38</v>
       </c>
       <c r="F257" t="s">
         <v>39</v>
+      </c>
+      <c r="G257" t="s">
+        <v>40</v>
+      </c>
+      <c r="H257">
+        <v>40</v>
+      </c>
+      <c r="I257">
+        <v>42</v>
+      </c>
+      <c r="J257">
+        <v>40</v>
+      </c>
+      <c r="K257">
+        <v>40</v>
+      </c>
+      <c r="L257">
+        <v>253</v>
+      </c>
+      <c r="M257" t="s">
+        <v>322</v>
+      </c>
+      <c r="N257" t="s">
+        <v>42</v>
+      </c>
+      <c r="O257">
+        <v>40</v>
+      </c>
+      <c r="P257">
+        <v>42</v>
+      </c>
+      <c r="Q257">
+        <v>40</v>
+      </c>
+      <c r="R257">
+        <v>40</v>
+      </c>
+      <c r="S257">
+        <v>253</v>
+      </c>
+      <c r="T257" t="s">
+        <v>322</v>
+      </c>
+      <c r="U257" t="s">
+        <v>43</v>
+      </c>
+      <c r="V257">
+        <v>40</v>
+      </c>
+      <c r="W257">
+        <v>42</v>
+      </c>
+      <c r="X257">
+        <v>40</v>
+      </c>
+      <c r="Y257">
+        <v>40</v>
+      </c>
+      <c r="Z257">
+        <v>253</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC257">
+        <v>40</v>
+      </c>
+      <c r="AD257">
+        <v>42</v>
+      </c>
+      <c r="AE257">
+        <v>40</v>
+      </c>
+      <c r="AF257">
+        <v>40</v>
+      </c>
+      <c r="AG257">
+        <v>253</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="258" spans="1:34" x14ac:dyDescent="0.35">
@@ -27564,13 +28242,97 @@
         <v>36</v>
       </c>
       <c r="C258" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="E258" t="s">
         <v>38</v>
       </c>
       <c r="F258" t="s">
         <v>39</v>
+      </c>
+      <c r="G258" t="s">
+        <v>40</v>
+      </c>
+      <c r="H258">
+        <v>40</v>
+      </c>
+      <c r="I258">
+        <v>42</v>
+      </c>
+      <c r="J258">
+        <v>40</v>
+      </c>
+      <c r="K258">
+        <v>40</v>
+      </c>
+      <c r="L258">
+        <v>253</v>
+      </c>
+      <c r="M258" t="s">
+        <v>322</v>
+      </c>
+      <c r="N258" t="s">
+        <v>42</v>
+      </c>
+      <c r="O258">
+        <v>40</v>
+      </c>
+      <c r="P258">
+        <v>42</v>
+      </c>
+      <c r="Q258">
+        <v>40</v>
+      </c>
+      <c r="R258">
+        <v>40</v>
+      </c>
+      <c r="S258">
+        <v>253</v>
+      </c>
+      <c r="T258" t="s">
+        <v>322</v>
+      </c>
+      <c r="U258" t="s">
+        <v>43</v>
+      </c>
+      <c r="V258">
+        <v>40</v>
+      </c>
+      <c r="W258">
+        <v>42</v>
+      </c>
+      <c r="X258">
+        <v>40</v>
+      </c>
+      <c r="Y258">
+        <v>40</v>
+      </c>
+      <c r="Z258">
+        <v>253</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC258">
+        <v>40</v>
+      </c>
+      <c r="AD258">
+        <v>42</v>
+      </c>
+      <c r="AE258">
+        <v>40</v>
+      </c>
+      <c r="AF258">
+        <v>40</v>
+      </c>
+      <c r="AG258">
+        <v>253</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="259" spans="1:34" x14ac:dyDescent="0.35">
@@ -27578,7 +28340,7 @@
         <v>36</v>
       </c>
       <c r="C259" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E259" t="s">
         <v>38</v>
@@ -27592,13 +28354,97 @@
         <v>36</v>
       </c>
       <c r="C260" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="E260" t="s">
         <v>38</v>
       </c>
       <c r="F260" t="s">
         <v>39</v>
+      </c>
+      <c r="G260" t="s">
+        <v>40</v>
+      </c>
+      <c r="H260">
+        <v>40</v>
+      </c>
+      <c r="I260">
+        <v>42</v>
+      </c>
+      <c r="J260">
+        <v>40</v>
+      </c>
+      <c r="K260">
+        <v>40</v>
+      </c>
+      <c r="L260">
+        <v>253</v>
+      </c>
+      <c r="M260" t="s">
+        <v>322</v>
+      </c>
+      <c r="N260" t="s">
+        <v>42</v>
+      </c>
+      <c r="O260">
+        <v>40</v>
+      </c>
+      <c r="P260">
+        <v>42</v>
+      </c>
+      <c r="Q260">
+        <v>40</v>
+      </c>
+      <c r="R260">
+        <v>40</v>
+      </c>
+      <c r="S260">
+        <v>253</v>
+      </c>
+      <c r="T260" t="s">
+        <v>322</v>
+      </c>
+      <c r="U260" t="s">
+        <v>43</v>
+      </c>
+      <c r="V260">
+        <v>40</v>
+      </c>
+      <c r="W260">
+        <v>42</v>
+      </c>
+      <c r="X260">
+        <v>40</v>
+      </c>
+      <c r="Y260">
+        <v>40</v>
+      </c>
+      <c r="Z260">
+        <v>253</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC260">
+        <v>40</v>
+      </c>
+      <c r="AD260">
+        <v>42</v>
+      </c>
+      <c r="AE260">
+        <v>40</v>
+      </c>
+      <c r="AF260">
+        <v>40</v>
+      </c>
+      <c r="AG260">
+        <v>253</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="261" spans="1:34" x14ac:dyDescent="0.35">
@@ -27606,13 +28452,97 @@
         <v>36</v>
       </c>
       <c r="C261" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E261" t="s">
         <v>38</v>
       </c>
       <c r="F261" t="s">
         <v>39</v>
+      </c>
+      <c r="G261" t="s">
+        <v>40</v>
+      </c>
+      <c r="H261">
+        <v>40</v>
+      </c>
+      <c r="I261">
+        <v>42</v>
+      </c>
+      <c r="J261">
+        <v>40</v>
+      </c>
+      <c r="K261">
+        <v>40</v>
+      </c>
+      <c r="L261">
+        <v>253</v>
+      </c>
+      <c r="M261" t="s">
+        <v>322</v>
+      </c>
+      <c r="N261" t="s">
+        <v>42</v>
+      </c>
+      <c r="O261">
+        <v>40</v>
+      </c>
+      <c r="P261">
+        <v>42</v>
+      </c>
+      <c r="Q261">
+        <v>40</v>
+      </c>
+      <c r="R261">
+        <v>40</v>
+      </c>
+      <c r="S261">
+        <v>253</v>
+      </c>
+      <c r="T261" t="s">
+        <v>322</v>
+      </c>
+      <c r="U261" t="s">
+        <v>43</v>
+      </c>
+      <c r="V261">
+        <v>40</v>
+      </c>
+      <c r="W261">
+        <v>42</v>
+      </c>
+      <c r="X261">
+        <v>40</v>
+      </c>
+      <c r="Y261">
+        <v>40</v>
+      </c>
+      <c r="Z261">
+        <v>253</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC261">
+        <v>40</v>
+      </c>
+      <c r="AD261">
+        <v>42</v>
+      </c>
+      <c r="AE261">
+        <v>40</v>
+      </c>
+      <c r="AF261">
+        <v>40</v>
+      </c>
+      <c r="AG261">
+        <v>253</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="262" spans="1:34" x14ac:dyDescent="0.35">
@@ -27620,7 +28550,7 @@
         <v>36</v>
       </c>
       <c r="C262" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E262" t="s">
         <v>38</v>
@@ -28245,7 +29175,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ268" xr:uid="{BC71C0CB-E149-4777-A639-C42D715DD1D6}">
+  <autoFilter ref="A1:AJ268" xr:uid="{B69A156B-D6E2-4EDF-BB88-700529F0CAE5}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AJ268">
       <sortCondition ref="C1:C268"/>
     </sortState>
